--- a/app/scripts/data/Bird surveys - Heal Somerset - volunteers.xlsx
+++ b/app/scripts/data/Bird surveys - Heal Somerset - volunteers.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="316">
   <si>
     <t>January</t>
   </si>
@@ -165,6 +165,12 @@
     <t>Jeremy, Nicola</t>
   </si>
   <si>
+    <t>Louise, Ted, Jenny, Nicola, Tom</t>
+  </si>
+  <si>
+    <t>Craig, Tim, Jeremy, Jenny, Tom</t>
+  </si>
+  <si>
     <t>Date:</t>
   </si>
   <si>
@@ -418,6 +424,12 @@
   </si>
   <si>
     <t>roe deer</t>
+  </si>
+  <si>
+    <t>2 roe deer</t>
+  </si>
+  <si>
+    <t>roe deer, hare, speckled wood</t>
   </si>
   <si>
     <t>Barn Owl</t>
@@ -2152,8 +2164,12 @@
         <v>35</v>
       </c>
       <c r="AU2" s="16"/>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
+      <c r="AV2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW2" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="AX2" s="15"/>
       <c r="AY2" s="16"/>
       <c r="AZ2" s="15"/>
@@ -2177,7 +2193,7 @@
     <row r="3">
       <c r="A3" s="21"/>
       <c r="B3" s="22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3" s="23">
         <v>45661.0</v>
@@ -2231,23 +2247,23 @@
       </c>
       <c r="W3" s="21"/>
       <c r="X3" s="26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Y3" s="26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Z3" s="27">
         <v>45794.0</v>
       </c>
       <c r="AA3" s="26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AB3" s="26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AC3" s="21"/>
       <c r="AD3" s="26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AE3" s="23">
         <v>45836.0</v>
@@ -2292,8 +2308,12 @@
         <v>45927.0</v>
       </c>
       <c r="AU3" s="21"/>
-      <c r="AV3" s="23"/>
-      <c r="AW3" s="23"/>
+      <c r="AV3" s="23">
+        <v>45941.0</v>
+      </c>
+      <c r="AW3" s="23">
+        <v>45948.0</v>
+      </c>
       <c r="AX3" s="28"/>
       <c r="AY3" s="21"/>
       <c r="AZ3" s="23"/>
@@ -2305,7 +2325,7 @@
       <c r="BF3" s="32"/>
       <c r="BG3" s="21"/>
       <c r="BH3" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="BI3" s="33">
         <f>SUM(D115,G115,N115,X115,AG115,AQ115)</f>
@@ -2318,19 +2338,19 @@
     </row>
     <row r="4">
       <c r="A4" s="35" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
@@ -2339,117 +2359,121 @@
         <v>500</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L4" s="39"/>
       <c r="M4" s="26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N4" s="26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O4" s="36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P4" s="36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R4" s="40">
         <f>SUM(M115:Q115)</f>
         <v>0</v>
       </c>
       <c r="S4" s="26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T4" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U4" s="41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V4" s="41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W4" s="39"/>
       <c r="X4" s="26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y4" s="41" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Z4" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA4" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="AA4" s="41" t="s">
-        <v>65</v>
-      </c>
       <c r="AB4" s="41" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AC4" s="39"/>
       <c r="AD4" s="41" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AE4" s="26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AF4" s="39"/>
       <c r="AG4" s="26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AH4" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AI4" s="36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ4" s="40">
         <f>SUM(AG115:AI115)</f>
         <v>0</v>
       </c>
       <c r="AK4" s="26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AL4" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AM4" s="36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AN4" s="38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AO4" s="38" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AP4" s="40">
         <f>SUM(AK10:AM113)</f>
         <v>741</v>
       </c>
       <c r="AQ4" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AR4" s="26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AS4" s="36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AT4" s="38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AU4" s="39"/>
-      <c r="AV4" s="26"/>
-      <c r="AW4" s="26"/>
+      <c r="AV4" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW4" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="AX4" s="36"/>
       <c r="AY4" s="39"/>
       <c r="AZ4" s="26"/>
@@ -2467,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="BH4" s="39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="BI4" s="44">
         <f>SUM(F115,M115,P115,S115,AI115)</f>
@@ -2480,114 +2504,118 @@
     </row>
     <row r="5">
       <c r="A5" s="45" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
       <c r="H5" s="46"/>
       <c r="I5" s="36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L5" s="46"/>
       <c r="M5" s="26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N5" s="26"/>
       <c r="O5" s="36" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P5" s="36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R5" s="44"/>
       <c r="S5" s="26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="T5" s="26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="U5" s="26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="V5" s="26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="W5" s="44"/>
       <c r="X5" s="26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Y5" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Z5" s="26"/>
       <c r="AA5" s="26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AB5" s="26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AC5" s="44"/>
       <c r="AD5" s="26" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE5" s="26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AF5" s="44"/>
       <c r="AG5" s="26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AH5" s="26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AI5" s="36" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AJ5" s="44"/>
       <c r="AK5" s="26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AL5" s="26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AM5" s="30"/>
       <c r="AN5" s="30"/>
       <c r="AO5" s="36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AP5" s="44"/>
       <c r="AQ5" s="26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AR5" s="47"/>
       <c r="AS5" s="30"/>
       <c r="AT5" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU5" s="44"/>
+      <c r="AV5" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="AU5" s="44"/>
-      <c r="AV5" s="26"/>
-      <c r="AW5" s="47"/>
+      <c r="AW5" s="26" t="s">
+        <v>101</v>
+      </c>
       <c r="AX5" s="36"/>
       <c r="AY5" s="44"/>
       <c r="AZ5" s="26"/>
@@ -2599,7 +2627,7 @@
       <c r="BF5" s="43"/>
       <c r="BG5" s="44"/>
       <c r="BH5" s="33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="BI5" s="44">
         <f>SUM(E115,I115,O115,AE115,AH115,AV115)</f>
@@ -2612,114 +2640,118 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="49" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
       <c r="H6" s="52"/>
       <c r="I6" s="42" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J6" s="42" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K6" s="42" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L6" s="52"/>
       <c r="M6" s="51" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N6" s="51" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O6" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P6" s="42" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q6" s="42" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="R6" s="53"/>
       <c r="S6" s="51" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="T6" s="51" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U6" s="51" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="V6" s="51" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="W6" s="53"/>
       <c r="X6" s="51"/>
       <c r="Y6" s="51" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Z6" s="51" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AA6" s="51" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB6" s="51" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC6" s="53"/>
       <c r="AD6" s="51" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AE6" s="51" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AF6" s="53"/>
       <c r="AG6" s="51"/>
       <c r="AH6" s="51" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AI6" s="42" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AJ6" s="53"/>
       <c r="AK6" s="51" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL6" s="51" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AM6" s="54"/>
       <c r="AN6" s="54"/>
       <c r="AO6" s="42" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AP6" s="53"/>
       <c r="AQ6" s="51"/>
       <c r="AR6" s="55"/>
       <c r="AS6" s="42" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AT6" s="42" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AU6" s="53"/>
-      <c r="AV6" s="51"/>
-      <c r="AW6" s="51"/>
+      <c r="AV6" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW6" s="51" t="s">
+        <v>136</v>
+      </c>
       <c r="AX6" s="42"/>
       <c r="AY6" s="53"/>
       <c r="AZ6" s="55"/>
@@ -2736,24 +2768,24 @@
     </row>
     <row r="7">
       <c r="A7" s="57" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B7" s="58"/>
       <c r="AK7" s="59" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="BF7" s="60"/>
     </row>
     <row r="8">
       <c r="A8" s="61" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B8" s="58"/>
       <c r="BF8" s="60"/>
     </row>
     <row r="9">
       <c r="A9" s="57" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B9" s="58"/>
       <c r="C9" s="59">
@@ -2853,11 +2885,17 @@
       <c r="AT9" s="59">
         <v>2.0</v>
       </c>
+      <c r="AV9" s="59">
+        <v>3.0</v>
+      </c>
+      <c r="AW9" s="59">
+        <v>1.0</v>
+      </c>
       <c r="BF9" s="62"/>
     </row>
     <row r="10">
       <c r="A10" s="57" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B10" s="63"/>
       <c r="Q10" s="59">
@@ -2912,7 +2950,7 @@
     </row>
     <row r="11">
       <c r="A11" s="57" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B11" s="63"/>
       <c r="D11" s="59">
@@ -3014,11 +3052,17 @@
       <c r="AT11" s="59">
         <v>15.0</v>
       </c>
+      <c r="AV11" s="59">
+        <v>9.0</v>
+      </c>
+      <c r="AW11" s="59">
+        <v>3.0</v>
+      </c>
       <c r="BF11" s="60"/>
     </row>
     <row r="12">
       <c r="A12" s="61" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B12" s="63"/>
       <c r="C12" s="59">
@@ -3079,11 +3123,14 @@
       <c r="AT12" s="59">
         <v>2.0</v>
       </c>
+      <c r="AV12" s="59">
+        <v>2.0</v>
+      </c>
       <c r="BF12" s="62"/>
     </row>
     <row r="13">
       <c r="A13" s="57" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B13" s="63"/>
       <c r="C13" s="59">
@@ -3156,7 +3203,7 @@
     </row>
     <row r="14">
       <c r="A14" s="64" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B14" s="65"/>
       <c r="K14" s="59">
@@ -3170,7 +3217,7 @@
     </row>
     <row r="15">
       <c r="A15" s="57" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B15" s="63"/>
       <c r="C15" s="59">
@@ -3275,18 +3322,24 @@
       <c r="AT15" s="59">
         <v>13.0</v>
       </c>
+      <c r="AV15" s="59">
+        <v>9.0</v>
+      </c>
+      <c r="AW15" s="59">
+        <v>11.0</v>
+      </c>
       <c r="BF15" s="62"/>
     </row>
     <row r="16">
       <c r="A16" s="61" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B16" s="63"/>
       <c r="BF16" s="60"/>
     </row>
     <row r="17">
       <c r="A17" s="57" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B17" s="63"/>
       <c r="I17" s="59">
@@ -3359,11 +3412,14 @@
       <c r="AT17" s="59">
         <v>1.0</v>
       </c>
+      <c r="AW17" s="59">
+        <v>2.0</v>
+      </c>
       <c r="BF17" s="60"/>
     </row>
     <row r="18">
       <c r="A18" s="57" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B18" s="63"/>
       <c r="D18" s="59">
@@ -3441,11 +3497,14 @@
       <c r="AT18" s="59">
         <v>2.0</v>
       </c>
+      <c r="AV18" s="59">
+        <v>2.0</v>
+      </c>
       <c r="BF18" s="60"/>
     </row>
     <row r="19">
       <c r="A19" s="57" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B19" s="63"/>
       <c r="I19" s="59">
@@ -3460,7 +3519,7 @@
     </row>
     <row r="20">
       <c r="A20" s="57" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B20" s="63"/>
       <c r="Z20" s="59">
@@ -3478,42 +3537,48 @@
       <c r="AQ20" s="59">
         <v>1.0</v>
       </c>
+      <c r="AW20" s="59">
+        <v>2.0</v>
+      </c>
       <c r="BF20" s="60"/>
     </row>
     <row r="21">
       <c r="A21" s="57" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B21" s="63"/>
       <c r="BF21" s="60"/>
     </row>
     <row r="22">
       <c r="A22" s="61" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B22" s="63"/>
       <c r="BF22" s="60"/>
     </row>
     <row r="23">
       <c r="A23" s="57" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B23" s="63"/>
       <c r="BF23" s="60"/>
     </row>
     <row r="24">
       <c r="A24" s="57" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B24" s="63"/>
       <c r="AI24" s="59">
         <v>1.0</v>
       </c>
+      <c r="AW24" s="59">
+        <v>1.0</v>
+      </c>
       <c r="BF24" s="60"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="66" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B25" s="63"/>
       <c r="V25" s="59">
@@ -3523,14 +3588,14 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="66" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B26" s="63"/>
       <c r="BF26" s="60"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="61" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B27" s="63"/>
       <c r="C27" s="59">
@@ -3603,11 +3668,14 @@
       <c r="AT27" s="59">
         <v>2.0</v>
       </c>
+      <c r="AV27" s="59">
+        <v>2.0</v>
+      </c>
       <c r="BF27" s="62"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="57" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B28" s="63"/>
       <c r="X28" s="59">
@@ -3629,7 +3697,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="66" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B29" s="63"/>
       <c r="E29" s="59">
@@ -3648,7 +3716,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="57" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B30" s="63"/>
       <c r="D30" s="59">
@@ -3657,11 +3725,17 @@
       <c r="E30" s="59">
         <v>1.0</v>
       </c>
+      <c r="AV30" s="59">
+        <v>1.0</v>
+      </c>
+      <c r="AW30" s="59">
+        <v>3.0</v>
+      </c>
       <c r="BF30" s="60"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="57" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B31" s="63"/>
       <c r="C31" s="59">
@@ -3733,7 +3807,7 @@
         <v>7.0</v>
       </c>
       <c r="AQ31" s="59" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AS31" s="59">
         <v>35.0</v>
@@ -3741,11 +3815,17 @@
       <c r="AT31" s="59">
         <v>20.0</v>
       </c>
+      <c r="AV31" s="59">
+        <v>1.0</v>
+      </c>
+      <c r="AW31" s="59">
+        <v>4.0</v>
+      </c>
       <c r="BF31" s="62"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="67" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B32" s="63"/>
       <c r="C32" s="59"/>
@@ -3760,14 +3840,14 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="61" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B33" s="63"/>
       <c r="BF33" s="60"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="57" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B34" s="63"/>
       <c r="C34" s="59">
@@ -3820,11 +3900,17 @@
       <c r="AT34" s="59">
         <v>1.0</v>
       </c>
+      <c r="AV34" s="59">
+        <v>1.0</v>
+      </c>
+      <c r="AW34" s="59">
+        <v>3.0</v>
+      </c>
       <c r="BF34" s="62"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="57" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B35" s="63"/>
       <c r="C35" s="59">
@@ -3911,11 +3997,17 @@
       <c r="AT35" s="59">
         <v>3.0</v>
       </c>
+      <c r="AV35" s="59">
+        <v>1.0</v>
+      </c>
+      <c r="AW35" s="59">
+        <v>1.0</v>
+      </c>
       <c r="BF35" s="62"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="61" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B36" s="63"/>
       <c r="AT36" s="59">
@@ -3925,14 +4017,14 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="68" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B37" s="63"/>
       <c r="BF37" s="60"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="57" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B38" s="63"/>
       <c r="C38" s="59">
@@ -3947,11 +4039,14 @@
       <c r="AM38" s="59">
         <v>1.0</v>
       </c>
+      <c r="AV38" s="59">
+        <v>1.0</v>
+      </c>
       <c r="BF38" s="62"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="66" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B39" s="63"/>
       <c r="Q39" s="59">
@@ -3983,7 +4078,7 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="57" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B40" s="63"/>
       <c r="S40" s="59">
@@ -3995,32 +4090,38 @@
       <c r="AO40" s="59">
         <v>1.0</v>
       </c>
+      <c r="AW40" s="59">
+        <v>1.0</v>
+      </c>
       <c r="BF40" s="60"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="66" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B41" s="63"/>
       <c r="BF41" s="60"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="61" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B42" s="63"/>
+      <c r="AW42" s="59">
+        <v>2.0</v>
+      </c>
       <c r="BF42" s="60"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="61" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B43" s="63"/>
       <c r="BF43" s="60"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="69" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B44" s="63"/>
       <c r="I44" s="59">
@@ -4030,7 +4131,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="69" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B45" s="63"/>
       <c r="I45" s="59"/>
@@ -4038,7 +4139,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="66" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B46" s="63"/>
       <c r="S46" s="59">
@@ -4055,7 +4156,7 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="57" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B47" s="63"/>
       <c r="AM47" s="59">
@@ -4065,7 +4166,7 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="69" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B48" s="63"/>
       <c r="Z48" s="59">
@@ -4105,7 +4206,7 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="66" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B49" s="63"/>
       <c r="E49" s="59">
@@ -4161,18 +4262,21 @@
       <c r="AR49" s="59">
         <v>1.0</v>
       </c>
+      <c r="AV49" s="59">
+        <v>4.0</v>
+      </c>
       <c r="BF49" s="60"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="57" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B50" s="63"/>
       <c r="BF50" s="60"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="57" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B51" s="63"/>
       <c r="C51" s="59">
@@ -4208,11 +4312,14 @@
       <c r="AT51" s="59">
         <v>2.0</v>
       </c>
+      <c r="AW51" s="59">
+        <v>12.0</v>
+      </c>
       <c r="BF51" s="62"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="57" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B52" s="63"/>
       <c r="C52" s="59">
@@ -4258,11 +4365,14 @@
         <v>1.0</v>
       </c>
       <c r="AT52" s="59"/>
+      <c r="AW52" s="59">
+        <v>1.0</v>
+      </c>
       <c r="BF52" s="62"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="61" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B53" s="63"/>
       <c r="D53" s="59">
@@ -4325,25 +4435,31 @@
       <c r="AT53" s="59">
         <v>2.0</v>
       </c>
+      <c r="AV53" s="59">
+        <v>2.0</v>
+      </c>
+      <c r="AW53" s="59">
+        <v>1.0</v>
+      </c>
       <c r="BF53" s="60"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="57" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B54" s="63"/>
       <c r="BF54" s="60"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="66" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B55" s="63"/>
       <c r="BF55" s="60"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="61" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B56" s="63"/>
       <c r="D56" s="59">
@@ -4384,18 +4500,21 @@
       <c r="AT56" s="59">
         <v>2.0</v>
       </c>
+      <c r="AV56" s="59">
+        <v>4.0</v>
+      </c>
       <c r="BF56" s="60"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="66" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B57" s="63"/>
       <c r="BF57" s="60"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="57" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B58" s="63"/>
       <c r="V58" s="59">
@@ -4416,7 +4535,7 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="66" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B59" s="63"/>
       <c r="Q59" s="59">
@@ -4441,21 +4560,21 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="57" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B60" s="63"/>
       <c r="BF60" s="60"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="57" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B61" s="63"/>
       <c r="BF61" s="60"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="57" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B62" s="63"/>
       <c r="E62" s="59">
@@ -4510,11 +4629,14 @@
       <c r="AT62" s="59">
         <v>8.0</v>
       </c>
+      <c r="AW62" s="59">
+        <v>5.0</v>
+      </c>
       <c r="BF62" s="60"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="70" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B63" s="71"/>
       <c r="C63" s="72">
@@ -4604,6 +4726,12 @@
       <c r="AS63" s="73"/>
       <c r="AT63" s="73"/>
       <c r="AU63" s="73"/>
+      <c r="AV63" s="59">
+        <v>1.0</v>
+      </c>
+      <c r="AW63" s="59">
+        <v>3.0</v>
+      </c>
       <c r="AY63" s="73"/>
       <c r="BB63" s="73"/>
       <c r="BC63" s="73"/>
@@ -4615,7 +4743,7 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="70" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B64" s="71"/>
       <c r="C64" s="72"/>
@@ -4660,7 +4788,7 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="70" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B65" s="71"/>
       <c r="C65" s="72"/>
@@ -4704,7 +4832,7 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="70" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B66" s="71"/>
       <c r="C66" s="73"/>
@@ -4731,6 +4859,9 @@
       <c r="AS66" s="73"/>
       <c r="AT66" s="73"/>
       <c r="AU66" s="73"/>
+      <c r="AV66" s="59">
+        <v>2.0</v>
+      </c>
       <c r="AY66" s="73"/>
       <c r="BB66" s="73"/>
       <c r="BC66" s="73"/>
@@ -4742,7 +4873,7 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="61" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B67" s="63"/>
       <c r="C67" s="59">
@@ -4784,11 +4915,17 @@
       <c r="AQ67" s="59">
         <v>2.0</v>
       </c>
+      <c r="AV67" s="59">
+        <v>2.0</v>
+      </c>
+      <c r="AW67" s="59">
+        <v>5.0</v>
+      </c>
       <c r="BF67" s="62"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="66" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B68" s="63"/>
       <c r="P68" s="59">
@@ -4805,7 +4942,7 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="61" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B69" s="63"/>
       <c r="V69" s="59">
@@ -4815,21 +4952,21 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="57" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B70" s="63"/>
       <c r="BF70" s="60"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="66" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B71" s="63"/>
       <c r="BF71" s="60"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="57" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B72" s="63"/>
       <c r="N72" s="59">
@@ -4854,7 +4991,7 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="67" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B73" s="63"/>
       <c r="N73" s="59"/>
@@ -4866,7 +5003,7 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="57" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B74" s="63"/>
       <c r="D74" s="59">
@@ -4893,11 +5030,14 @@
       <c r="AT74" s="59">
         <v>1.0</v>
       </c>
+      <c r="AW74" s="59">
+        <v>1.0</v>
+      </c>
       <c r="BF74" s="60"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="57" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B75" s="63"/>
       <c r="Z75" s="59"/>
@@ -4912,14 +5052,14 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="61" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B76" s="63"/>
       <c r="BF76" s="60"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="57" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B77" s="63"/>
       <c r="C77" s="59">
@@ -4974,11 +5114,17 @@
       <c r="AT77" s="59">
         <v>1.0</v>
       </c>
+      <c r="AV77" s="59">
+        <v>1.0</v>
+      </c>
+      <c r="AW77" s="59">
+        <v>4.0</v>
+      </c>
       <c r="BF77" s="62"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="57" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B78" s="63"/>
       <c r="C78" s="59">
@@ -5017,11 +5163,17 @@
       <c r="AM78" s="59">
         <v>1.0</v>
       </c>
+      <c r="AV78" s="59">
+        <v>1.0</v>
+      </c>
+      <c r="AW78" s="59">
+        <v>1.0</v>
+      </c>
       <c r="BF78" s="62"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="61" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B79" s="63"/>
       <c r="S79" s="59"/>
@@ -5029,7 +5181,7 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="61" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B80" s="63"/>
       <c r="E80" s="59">
@@ -5044,11 +5196,14 @@
       <c r="K80" s="59">
         <v>30.0</v>
       </c>
+      <c r="AW80" s="59">
+        <v>4.0</v>
+      </c>
       <c r="BF80" s="60"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="61" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B81" s="63"/>
       <c r="AE81" s="59">
@@ -5061,7 +5216,7 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="57" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B82" s="63"/>
       <c r="AB82" s="59">
@@ -5071,7 +5226,7 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="57" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B83" s="63"/>
       <c r="C83" s="59">
@@ -5176,11 +5331,17 @@
       <c r="AT83" s="59">
         <v>15.0</v>
       </c>
+      <c r="AV83" s="59">
+        <v>10.0</v>
+      </c>
+      <c r="AW83" s="59">
+        <v>5.0</v>
+      </c>
       <c r="BF83" s="62"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="61" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B84" s="63"/>
       <c r="C84" s="59">
@@ -5199,32 +5360,38 @@
       <c r="AM84" s="59">
         <v>1.0</v>
       </c>
+      <c r="AW84" s="59">
+        <v>30.0</v>
+      </c>
       <c r="BF84" s="62"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="61" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B85" s="63"/>
       <c r="BF85" s="60"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="61" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B86" s="63"/>
       <c r="BF86" s="60"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="57" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B87" s="63"/>
+      <c r="AW87" s="59">
+        <v>42.0</v>
+      </c>
       <c r="BF87" s="60"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="66" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B88" s="63"/>
       <c r="D88" s="59">
@@ -5278,18 +5445,21 @@
       <c r="AT88" s="59">
         <v>3.0</v>
       </c>
+      <c r="AW88" s="59">
+        <v>1.0</v>
+      </c>
       <c r="BF88" s="60"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="61" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B89" s="63"/>
       <c r="BF89" s="60"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="61" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B90" s="63"/>
       <c r="C90" s="59">
@@ -5351,11 +5521,14 @@
       <c r="AQ90" s="59">
         <v>1.0</v>
       </c>
+      <c r="AW90" s="59">
+        <v>1.0</v>
+      </c>
       <c r="BF90" s="62"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="61" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B91" s="63"/>
       <c r="I91" s="59">
@@ -5376,7 +5549,7 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="66" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B92" s="63"/>
       <c r="AE92" s="59">
@@ -5401,7 +5574,7 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="66" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B93" s="63"/>
       <c r="D93" s="59">
@@ -5440,11 +5613,17 @@
         <v>30.0</v>
       </c>
       <c r="AT93" s="59"/>
+      <c r="AV93" s="59">
+        <v>27.0</v>
+      </c>
+      <c r="AW93" s="59">
+        <v>30.0</v>
+      </c>
       <c r="BF93" s="60"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="61" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B94" s="63"/>
       <c r="O94" s="59">
@@ -5472,7 +5651,7 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="57" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B95" s="63"/>
       <c r="C95" s="59">
@@ -5523,11 +5702,17 @@
       <c r="AT95" s="59">
         <v>2.0</v>
       </c>
+      <c r="AV95" s="59">
+        <v>7.0</v>
+      </c>
+      <c r="AW95" s="59">
+        <v>3.0</v>
+      </c>
       <c r="BF95" s="62"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="57" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B96" s="63"/>
       <c r="S96" s="59">
@@ -5580,7 +5765,7 @@
         <v>8.0</v>
       </c>
       <c r="AQ96" s="59" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AS96" s="59">
         <v>10.0</v>
@@ -5588,11 +5773,14 @@
       <c r="AT96" s="59">
         <v>200.0</v>
       </c>
+      <c r="AV96" s="59">
+        <v>3.0</v>
+      </c>
       <c r="BF96" s="60"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="66" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B97" s="63"/>
       <c r="AE97" s="59">
@@ -5602,14 +5790,14 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="61" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B98" s="63"/>
       <c r="BF98" s="60"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="66" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B99" s="63"/>
       <c r="T99" s="59">
@@ -5633,7 +5821,7 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="57" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B100" s="63"/>
       <c r="C100" s="59">
@@ -5652,7 +5840,7 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="69" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B101" s="63"/>
       <c r="AE101" s="59">
@@ -5671,7 +5859,7 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="61" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B102" s="63"/>
       <c r="AS102" s="59">
@@ -5682,7 +5870,7 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="76" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B103" s="77"/>
       <c r="AH103" s="59">
@@ -5708,7 +5896,7 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="61" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B104" s="63"/>
       <c r="V104" s="59">
@@ -5736,7 +5924,7 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="78" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B105" s="63"/>
       <c r="T105" s="59">
@@ -5746,7 +5934,7 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="61" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B106" s="63"/>
       <c r="C106" s="59">
@@ -5848,11 +6036,17 @@
       <c r="AT106" s="59">
         <v>2.0</v>
       </c>
+      <c r="AV106" s="59">
+        <v>24.0</v>
+      </c>
+      <c r="AW106" s="59">
+        <v>5.0</v>
+      </c>
       <c r="BF106" s="62"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="61" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B107" s="63"/>
       <c r="C107" s="59">
@@ -5957,11 +6151,17 @@
       <c r="AT107" s="59">
         <v>8.0</v>
       </c>
+      <c r="AV107" s="59">
+        <v>2.0</v>
+      </c>
+      <c r="AW107" s="59">
+        <v>10.0</v>
+      </c>
       <c r="BF107" s="62"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="66" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B108" s="63"/>
       <c r="BF108" s="60"/>
@@ -5976,7 +6176,7 @@
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="80"/>
       <c r="B110" s="81" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C110" s="42">
         <v>22.0</v>
@@ -6118,9 +6318,15 @@
         <f t="shared" si="7"/>
         <v>26</v>
       </c>
-      <c r="AU110" s="53"/>
-      <c r="AV110" s="42"/>
-      <c r="AW110" s="82"/>
+      <c r="AU110" s="42"/>
+      <c r="AV110" s="42">
+        <f t="shared" ref="AV110:AW110" si="8">countif(AV7:AV108, "&gt;0")</f>
+        <v>25</v>
+      </c>
+      <c r="AW110" s="42">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
       <c r="AX110" s="54"/>
       <c r="AY110" s="53"/>
       <c r="AZ110" s="82"/>
@@ -6138,14 +6344,14 @@
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="84"/>
       <c r="B111" s="85" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C111" s="86">
-        <f t="shared" ref="C111:D111" si="8">SUM(C7:C108)</f>
+        <f t="shared" ref="C111:D111" si="9">SUM(C7:C108)</f>
         <v>135</v>
       </c>
       <c r="D111" s="86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>187</v>
       </c>
       <c r="E111" s="86">
@@ -6159,36 +6365,36 @@
       </c>
       <c r="H111" s="87"/>
       <c r="I111" s="86">
-        <f t="shared" ref="I111:K111" si="9">SUM(I7:I108)</f>
+        <f t="shared" ref="I111:K111" si="10">SUM(I7:I108)</f>
         <v>279</v>
       </c>
       <c r="J111" s="86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>95</v>
       </c>
       <c r="K111" s="86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>254</v>
       </c>
       <c r="L111" s="87"/>
       <c r="M111" s="86">
-        <f t="shared" ref="M111:Q111" si="10">SUM(M7:M108)</f>
+        <f t="shared" ref="M111:Q111" si="11">SUM(M7:M108)</f>
         <v>390</v>
       </c>
       <c r="N111" s="86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>73</v>
       </c>
       <c r="O111" s="86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>112</v>
       </c>
       <c r="P111" s="86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>255</v>
       </c>
       <c r="Q111" s="86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>172</v>
       </c>
       <c r="R111" s="87"/>
@@ -6196,135 +6402,135 @@
         <v>120.0</v>
       </c>
       <c r="T111" s="86">
-        <f t="shared" ref="T111:V111" si="11">SUM(T7:T108)</f>
+        <f t="shared" ref="T111:V111" si="12">SUM(T7:T108)</f>
         <v>102</v>
       </c>
       <c r="U111" s="86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>59</v>
       </c>
       <c r="V111" s="86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>70</v>
       </c>
       <c r="W111" s="86"/>
       <c r="X111" s="86">
-        <f t="shared" ref="X111:AB111" si="12">SUM(X7:X108)</f>
+        <f t="shared" ref="X111:AB111" si="13">SUM(X7:X108)</f>
         <v>127</v>
       </c>
       <c r="Y111" s="86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>67</v>
       </c>
       <c r="Z111" s="86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>107</v>
       </c>
       <c r="AA111" s="86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>94</v>
       </c>
       <c r="AB111" s="86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>75</v>
       </c>
       <c r="AC111" s="86"/>
       <c r="AD111" s="86">
-        <f t="shared" ref="AD111:AE111" si="13">SUM(AD7:AD108)</f>
+        <f t="shared" ref="AD111:AE111" si="14">SUM(AD7:AD108)</f>
         <v>82</v>
       </c>
       <c r="AE111" s="86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>98</v>
       </c>
       <c r="AF111" s="87"/>
       <c r="AG111" s="86">
-        <f t="shared" ref="AG111:AI111" si="14">SUM(AG7:AG108)</f>
+        <f t="shared" ref="AG111:AI111" si="15">SUM(AG7:AG108)</f>
         <v>62</v>
       </c>
       <c r="AH111" s="86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>126</v>
       </c>
       <c r="AI111" s="86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>132</v>
       </c>
       <c r="AJ111" s="87"/>
       <c r="AK111" s="86">
-        <f t="shared" ref="AK111:AO111" si="15">SUM(AK7:AK108)</f>
+        <f t="shared" ref="AK111:AO111" si="16">SUM(AK7:AK108)</f>
         <v>130</v>
       </c>
       <c r="AL111" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>78</v>
       </c>
       <c r="AM111" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>130</v>
       </c>
       <c r="AN111" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>105</v>
       </c>
       <c r="AO111" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>154</v>
       </c>
       <c r="AP111" s="87"/>
       <c r="AQ111" s="86">
-        <f t="shared" ref="AQ111:AT111" si="16">SUM(AQ7:AQ108)</f>
+        <f t="shared" ref="AQ111:AT111" si="17">SUM(AQ7:AQ108)</f>
         <v>92</v>
       </c>
       <c r="AR111" s="86">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>85</v>
       </c>
       <c r="AS111" s="86">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>143</v>
       </c>
       <c r="AT111" s="86">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>610</v>
       </c>
       <c r="AU111" s="87"/>
       <c r="AV111" s="86">
-        <f t="shared" ref="AV111:AX111" si="17">SUM(AV7:AV108)</f>
-        <v>0</v>
+        <f t="shared" ref="AV111:AX111" si="18">SUM(AV7:AV108)</f>
+        <v>122</v>
       </c>
       <c r="AW111" s="86">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>198</v>
       </c>
       <c r="AX111" s="86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AY111" s="87"/>
       <c r="AZ111" s="86">
-        <f t="shared" ref="AZ111:BB111" si="18">SUM(AZ7:AZ108)</f>
+        <f t="shared" ref="AZ111:BB111" si="19">SUM(AZ7:AZ108)</f>
         <v>0</v>
       </c>
       <c r="BA111" s="86">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BB111" s="86">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BC111" s="87"/>
       <c r="BD111" s="86">
-        <f t="shared" ref="BD111:BF111" si="19">SUM(BD7:BD108)</f>
+        <f t="shared" ref="BD111:BF111" si="20">SUM(BD7:BD108)</f>
         <v>0</v>
       </c>
       <c r="BE111" s="86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BF111" s="86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BG111" s="53"/>
@@ -10118,55 +10324,55 @@
       </c>
       <c r="C2" s="90"/>
       <c r="D2" s="91" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E2" s="92" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F2" s="92" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G2" s="92" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="91" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="91" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L2" s="91" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M2" s="92" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="N2" s="92" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O2" s="16"/>
       <c r="P2" s="91" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q2" s="16"/>
       <c r="R2" s="91" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="S2" s="16"/>
       <c r="T2" s="91" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="U2" s="16"/>
       <c r="V2" s="91" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="W2" s="91" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="X2" s="92" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Y2" s="16"/>
       <c r="Z2" s="90"/>
@@ -10174,34 +10380,34 @@
       <c r="AB2" s="93"/>
       <c r="AC2" s="16"/>
       <c r="AD2" s="91" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AE2" s="90"/>
       <c r="AF2" s="93"/>
       <c r="AG2" s="16"/>
       <c r="AH2" s="91" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AI2" s="91" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AJ2" s="92" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AK2" s="16"/>
       <c r="AL2" s="91" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AM2" s="91" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AN2" s="93"/>
       <c r="AO2" s="16"/>
       <c r="AP2" s="94" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AQ2" s="94" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AR2" s="18"/>
       <c r="AS2" s="16"/>
@@ -10218,10 +10424,10 @@
     <row r="3">
       <c r="A3" s="21"/>
       <c r="B3" s="22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D3" s="24">
         <v>45296.0</v>
@@ -10312,7 +10518,7 @@
       <c r="AR3" s="32"/>
       <c r="AS3" s="21"/>
       <c r="AT3" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AU3" s="33">
         <f>SUM(D107,G107,L107,R107,V107,AD107)</f>
@@ -10325,78 +10531,78 @@
     </row>
     <row r="4">
       <c r="A4" s="35" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H4" s="40">
         <f>SUM(C107:G107)</f>
         <v>427</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J4" s="39">
         <v>140.0</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L4" s="26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M4" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="36" t="s">
         <v>59</v>
-      </c>
-      <c r="N4" s="36" t="s">
-        <v>57</v>
       </c>
       <c r="O4" s="40">
         <f>SUM(K107:N107)</f>
         <v>898</v>
       </c>
       <c r="P4" s="26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q4" s="39">
         <v>131.0</v>
       </c>
       <c r="R4" s="26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S4" s="39">
         <v>120.0</v>
       </c>
       <c r="T4" s="26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U4" s="39">
         <v>94.0</v>
       </c>
       <c r="V4" s="26" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="W4" s="26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X4" s="36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y4" s="40">
         <f>SUM(V107:X107)</f>
@@ -10410,7 +10616,7 @@
         <v>0</v>
       </c>
       <c r="AD4" s="26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE4" s="47"/>
       <c r="AF4" s="30"/>
@@ -10418,22 +10624,22 @@
         <v>72.0</v>
       </c>
       <c r="AH4" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI4" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="AI4" s="26" t="s">
-        <v>57</v>
-      </c>
       <c r="AJ4" s="36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AK4" s="39">
         <v>96.0</v>
       </c>
       <c r="AL4" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM4" s="26" t="s">
         <v>59</v>
-      </c>
-      <c r="AM4" s="26" t="s">
-        <v>57</v>
       </c>
       <c r="AN4" s="30"/>
       <c r="AO4" s="37">
@@ -10441,10 +10647,10 @@
         <v>303</v>
       </c>
       <c r="AP4" s="42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AQ4" s="42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AR4" s="43"/>
       <c r="AS4" s="40">
@@ -10452,7 +10658,7 @@
         <v>311</v>
       </c>
       <c r="AT4" s="39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AU4" s="44">
         <f>SUM(F107,K107,N107,P107,X107)</f>
@@ -10465,56 +10671,56 @@
     </row>
     <row r="5">
       <c r="A5" s="45" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D5" s="96"/>
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
       <c r="G5" s="36" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H5" s="46"/>
       <c r="I5" s="26" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="J5" s="46"/>
       <c r="K5" s="47"/>
       <c r="L5" s="26" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M5" s="36" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="N5" s="36" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="O5" s="44"/>
       <c r="P5" s="26" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q5" s="44"/>
       <c r="R5" s="26" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="S5" s="44"/>
       <c r="T5" s="26" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="U5" s="44"/>
       <c r="V5" s="26" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="W5" s="26" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="X5" s="36" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Y5" s="44"/>
       <c r="Z5" s="47"/>
@@ -10522,37 +10728,37 @@
       <c r="AB5" s="30"/>
       <c r="AC5" s="44"/>
       <c r="AD5" s="26" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AE5" s="47"/>
       <c r="AF5" s="30"/>
       <c r="AG5" s="44"/>
       <c r="AH5" s="26" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AI5" s="47"/>
       <c r="AJ5" s="36" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AK5" s="44"/>
       <c r="AL5" s="26" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AM5" s="26" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AN5" s="30"/>
       <c r="AO5" s="44"/>
       <c r="AP5" s="42" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AQ5" s="42" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AR5" s="43"/>
       <c r="AS5" s="44"/>
       <c r="AT5" s="33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AU5" s="44">
         <f>SUM(E107,I107,M107,T107,W107,AH107)</f>
@@ -10565,48 +10771,48 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="97" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B6" s="98" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D6" s="99"/>
       <c r="E6" s="42" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H6" s="52"/>
       <c r="I6" s="51" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="J6" s="52"/>
       <c r="K6" s="51" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L6" s="51" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M6" s="42" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="N6" s="42" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="O6" s="53"/>
       <c r="P6" s="51" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q6" s="53"/>
       <c r="R6" s="51" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="S6" s="53"/>
       <c r="T6" s="51"/>
@@ -10625,20 +10831,20 @@
       <c r="AG6" s="53"/>
       <c r="AH6" s="51"/>
       <c r="AI6" s="51" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AJ6" s="42" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AK6" s="53"/>
       <c r="AL6" s="55"/>
       <c r="AM6" s="51" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AN6" s="54"/>
       <c r="AO6" s="53"/>
       <c r="AP6" s="42" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AQ6" s="54"/>
       <c r="AR6" s="43"/>
@@ -10649,21 +10855,21 @@
     </row>
     <row r="7">
       <c r="A7" s="57" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B7" s="100"/>
       <c r="AR7" s="60"/>
     </row>
     <row r="8">
       <c r="A8" s="101" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B8" s="100"/>
       <c r="AR8" s="60"/>
     </row>
     <row r="9">
       <c r="A9" s="102" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B9" s="100"/>
       <c r="F9" s="59">
@@ -10730,7 +10936,7 @@
     </row>
     <row r="10">
       <c r="A10" s="103" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B10" s="104"/>
       <c r="P10" s="59">
@@ -10752,7 +10958,7 @@
     </row>
     <row r="11">
       <c r="A11" s="105" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B11" s="104"/>
       <c r="E11" s="59">
@@ -10825,7 +11031,7 @@
     </row>
     <row r="12">
       <c r="A12" s="106" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B12" s="104"/>
       <c r="D12" s="59">
@@ -10865,19 +11071,19 @@
     </row>
     <row r="13">
       <c r="A13" s="106" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B13" s="104"/>
     </row>
     <row r="14">
       <c r="A14" s="105" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B14" s="104"/>
     </row>
     <row r="15">
       <c r="A15" s="105" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B15" s="104"/>
       <c r="E15" s="59">
@@ -10923,14 +11129,14 @@
     </row>
     <row r="16">
       <c r="A16" s="107" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B16" s="108"/>
       <c r="AR16" s="60"/>
     </row>
     <row r="17">
       <c r="A17" s="105" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B17" s="104"/>
       <c r="E17" s="59">
@@ -11003,14 +11209,14 @@
     </row>
     <row r="18">
       <c r="A18" s="106" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B18" s="104"/>
       <c r="AR18" s="60"/>
     </row>
     <row r="19">
       <c r="A19" s="105" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B19" s="104"/>
       <c r="D19" s="59">
@@ -11047,7 +11253,7 @@
     </row>
     <row r="20">
       <c r="A20" s="105" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B20" s="104"/>
       <c r="L20" s="59">
@@ -11087,7 +11293,7 @@
     </row>
     <row r="21">
       <c r="A21" s="105" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B21" s="104"/>
       <c r="F21" s="59">
@@ -11103,7 +11309,7 @@
     </row>
     <row r="22">
       <c r="A22" s="105" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B22" s="104"/>
       <c r="M22" s="59">
@@ -11116,28 +11322,28 @@
     </row>
     <row r="23">
       <c r="A23" s="105" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B23" s="104"/>
       <c r="AR23" s="60"/>
     </row>
     <row r="24">
       <c r="A24" s="106" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B24" s="104"/>
       <c r="AR24" s="60"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="105" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B25" s="104"/>
       <c r="AR25" s="60"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="105" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B26" s="104"/>
       <c r="AM26" s="59">
@@ -11147,21 +11353,21 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="110" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B27" s="104"/>
       <c r="AR27" s="60"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="110" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B28" s="104"/>
       <c r="AR28" s="60"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="106" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B29" s="104"/>
       <c r="D29" s="59">
@@ -11213,7 +11419,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="105" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B30" s="104"/>
       <c r="AH30" s="59">
@@ -11223,7 +11429,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="110" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B31" s="104"/>
       <c r="F31" s="59">
@@ -11248,7 +11454,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="105" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B32" s="104"/>
       <c r="E32" s="59">
@@ -11261,7 +11467,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="105" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B33" s="104"/>
       <c r="G33" s="59">
@@ -11304,14 +11510,14 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="106" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B34" s="104"/>
       <c r="AR34" s="60"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="105" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B35" s="104"/>
       <c r="D35" s="59">
@@ -11336,7 +11542,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="105" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B36" s="104"/>
       <c r="E36" s="59">
@@ -11388,14 +11594,14 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="106" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B37" s="104"/>
       <c r="AR37" s="60"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="111" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B38" s="104"/>
       <c r="D38" s="59"/>
@@ -11411,7 +11617,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="105" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B39" s="104"/>
       <c r="D39" s="59">
@@ -11430,7 +11636,7 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="110" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B40" s="104"/>
       <c r="AL40" s="59">
@@ -11440,28 +11646,28 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="105" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B41" s="104"/>
       <c r="AR41" s="60"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="110" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B42" s="104"/>
       <c r="AR42" s="60"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="106" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B43" s="104"/>
       <c r="AR43" s="60"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="106" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B44" s="104"/>
       <c r="T44" s="59"/>
@@ -11469,7 +11675,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="112" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B45" s="104"/>
       <c r="E45" s="59"/>
@@ -11478,7 +11684,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="110" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B46" s="104"/>
       <c r="E46" s="59">
@@ -11491,14 +11697,14 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="105" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B47" s="104"/>
       <c r="AR47" s="60"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="112" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B48" s="104"/>
       <c r="F48" s="59"/>
@@ -11515,7 +11721,7 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="110" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B49" s="104"/>
       <c r="F49" s="59">
@@ -11549,14 +11755,14 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="105" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B50" s="104"/>
       <c r="AR50" s="60"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="105" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B51" s="104"/>
       <c r="E51" s="59">
@@ -11590,7 +11796,7 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="105" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B52" s="104"/>
       <c r="G52" s="59">
@@ -11615,7 +11821,7 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="106" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B53" s="104"/>
       <c r="D53" s="59">
@@ -11670,14 +11876,14 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="105" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B54" s="104"/>
       <c r="AR54" s="60"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="110" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B55" s="104"/>
       <c r="F55" s="59">
@@ -11687,7 +11893,7 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="106" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B56" s="104"/>
       <c r="I56" s="59">
@@ -11709,14 +11915,14 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="110" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B57" s="104"/>
       <c r="AR57" s="60"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="105" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B58" s="104"/>
       <c r="P58" s="59">
@@ -11729,7 +11935,7 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="110" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B59" s="104"/>
       <c r="T59" s="59">
@@ -11739,21 +11945,21 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="105" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B60" s="104"/>
       <c r="AR60" s="60"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="105" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B61" s="104"/>
       <c r="AR61" s="60"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="105" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B62" s="104"/>
       <c r="M62" s="59">
@@ -11778,7 +11984,7 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="113" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B63" s="114"/>
       <c r="C63" s="73"/>
@@ -11868,7 +12074,7 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="113" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B64" s="114"/>
       <c r="C64" s="73"/>
@@ -11922,7 +12128,7 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="106" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B65" s="104"/>
       <c r="E65" s="59">
@@ -11983,7 +12189,7 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="110" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B66" s="104"/>
       <c r="R66" s="59">
@@ -11993,7 +12199,7 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="110" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B67" s="104"/>
       <c r="W67" s="59">
@@ -12005,28 +12211,28 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="106" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B68" s="104"/>
       <c r="AR68" s="60"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="105" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B69" s="104"/>
       <c r="AR69" s="60"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="110" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B70" s="104"/>
       <c r="AR70" s="60"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="105" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B71" s="104"/>
       <c r="AD71" s="59">
@@ -12036,7 +12242,7 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="105" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B72" s="104"/>
       <c r="F72" s="59">
@@ -12079,7 +12285,7 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="105" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B73" s="104"/>
       <c r="D73" s="59">
@@ -12098,14 +12304,14 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="106" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B74" s="104"/>
       <c r="AR74" s="60"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="105" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B75" s="104"/>
       <c r="D75" s="59">
@@ -12142,7 +12348,7 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="105" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B76" s="104"/>
       <c r="E76" s="59">
@@ -12164,7 +12370,7 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="106" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B77" s="104"/>
       <c r="K77" s="59">
@@ -12174,7 +12380,7 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="106" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B78" s="104"/>
       <c r="E78" s="59">
@@ -12211,21 +12417,21 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="106" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B79" s="104"/>
       <c r="AR79" s="60"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="105" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B80" s="104"/>
       <c r="AR80" s="60"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="105" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B81" s="104"/>
       <c r="E81" s="59">
@@ -12286,7 +12492,7 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="106" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B82" s="104"/>
       <c r="R82" s="59">
@@ -12308,21 +12514,21 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="106" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B83" s="104"/>
       <c r="AR83" s="60"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="106" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B84" s="104"/>
       <c r="AR84" s="60"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="105" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B85" s="104"/>
       <c r="AQ85" s="59">
@@ -12332,7 +12538,7 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="110" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B86" s="104"/>
       <c r="G86" s="59">
@@ -12372,7 +12578,7 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="106" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B87" s="104"/>
       <c r="D87" s="59">
@@ -12388,7 +12594,7 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="106" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B88" s="104"/>
       <c r="D88" s="59">
@@ -12416,7 +12622,7 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="106" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B89" s="104"/>
       <c r="R89" s="59">
@@ -12435,7 +12641,7 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="110" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B90" s="104"/>
       <c r="V90" s="59">
@@ -12445,7 +12651,7 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="110" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B91" s="104"/>
       <c r="F91" s="59">
@@ -12479,7 +12685,7 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="106" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B92" s="104"/>
       <c r="AL92" s="59">
@@ -12489,7 +12695,7 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="105" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B93" s="104"/>
       <c r="D93" s="59">
@@ -12529,7 +12735,7 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="105" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B94" s="104"/>
       <c r="G94" s="59"/>
@@ -12564,7 +12770,7 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="110" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B95" s="104"/>
       <c r="T95" s="59">
@@ -12577,14 +12783,14 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="106" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B96" s="104"/>
       <c r="AR96" s="60"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="110" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B97" s="104"/>
       <c r="P97" s="59">
@@ -12594,7 +12800,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="105" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B98" s="104"/>
       <c r="W98" s="59">
@@ -12604,14 +12810,14 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="106" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B99" s="104"/>
       <c r="AR99" s="60"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="115" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B100" s="116"/>
       <c r="AD100" s="59">
@@ -12621,7 +12827,7 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="106" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B101" s="104"/>
       <c r="W101" s="59">
@@ -12631,7 +12837,7 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="106" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B102" s="104"/>
       <c r="E102" s="59">
@@ -12704,7 +12910,7 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="106" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B103" s="104"/>
       <c r="E103" s="59">
@@ -12774,7 +12980,7 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="110" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B104" s="104"/>
       <c r="K104" s="59">
@@ -12788,7 +12994,7 @@
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="117"/>
       <c r="B105" s="118" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C105" s="119"/>
       <c r="D105" s="119">
@@ -12923,7 +13129,7 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="122" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AD106" s="59">
         <v>2.0</v>
@@ -12932,7 +13138,7 @@
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="123"/>
       <c r="B107" s="85" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C107" s="42"/>
       <c r="D107" s="42">
@@ -15820,7 +16026,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="126" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C1" s="127" t="s">
         <v>0</v>
@@ -15859,15 +16065,15 @@
         <v>12</v>
       </c>
       <c r="O1" s="126" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="P1" s="127" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="129" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C2" s="130">
         <v>6.0</v>
@@ -15914,7 +16120,7 @@
     </row>
     <row r="3">
       <c r="B3" s="129" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" s="133">
         <v>10.0</v>
@@ -15961,10 +16167,10 @@
     </row>
     <row r="5">
       <c r="A5" s="123" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="126" t="s">
         <v>305</v>
-      </c>
-      <c r="B5" s="126" t="s">
-        <v>301</v>
       </c>
       <c r="C5" s="127" t="s">
         <v>0</v>
@@ -16003,15 +16209,15 @@
         <v>12</v>
       </c>
       <c r="O5" s="127" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="P5" s="127" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="129" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C6" s="130">
         <v>148.0</v>
@@ -16058,7 +16264,7 @@
     </row>
     <row r="7">
       <c r="B7" s="129" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C7" s="133">
         <v>137.0</v>
@@ -16105,7 +16311,7 @@
     </row>
     <row r="10">
       <c r="A10" s="123" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11">
@@ -16113,15 +16319,15 @@
         <v>15</v>
       </c>
       <c r="B11" s="127" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C11" s="128" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="134" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B12" s="130">
         <v>0.0</v>
@@ -16132,7 +16338,7 @@
     </row>
     <row r="13">
       <c r="A13" s="134" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B13" s="130">
         <v>0.0</v>
@@ -16143,7 +16349,7 @@
     </row>
     <row r="14">
       <c r="A14" s="134" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B14" s="130">
         <v>18.0</v>
@@ -16154,7 +16360,7 @@
     </row>
     <row r="15">
       <c r="A15" s="134" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B15" s="130">
         <v>0.0</v>
@@ -16165,7 +16371,7 @@
     </row>
     <row r="16">
       <c r="A16" s="134" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B16" s="130">
         <v>33.0</v>
@@ -16176,7 +16382,7 @@
     </row>
     <row r="17">
       <c r="A17" s="134" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B17" s="130">
         <v>1.0</v>
@@ -16187,7 +16393,7 @@
     </row>
     <row r="18">
       <c r="A18" s="134" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B18" s="130">
         <v>0.0</v>
@@ -16198,7 +16404,7 @@
     </row>
     <row r="19">
       <c r="A19" s="134" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B19" s="130">
         <v>2.0</v>
@@ -16209,7 +16415,7 @@
     </row>
     <row r="20">
       <c r="A20" s="134" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B20" s="130">
         <v>1.0</v>
@@ -16220,7 +16426,7 @@
     </row>
     <row r="21">
       <c r="A21" s="134" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B21" s="130">
         <v>0.0</v>
@@ -16231,7 +16437,7 @@
     </row>
     <row r="22">
       <c r="A22" s="134" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B22" s="130">
         <v>53.0</v>
@@ -16242,7 +16448,7 @@
     </row>
     <row r="23">
       <c r="A23" s="134" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B23" s="130">
         <v>3.0</v>
@@ -16253,7 +16459,7 @@
     </row>
     <row r="24">
       <c r="A24" s="134" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B24" s="130">
         <v>4.0</v>
@@ -16264,7 +16470,7 @@
     </row>
     <row r="25">
       <c r="A25" s="134" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B25" s="130">
         <v>665.0</v>
@@ -16275,7 +16481,7 @@
     </row>
     <row r="26">
       <c r="A26" s="134" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B26" s="130">
         <v>2202.0</v>
@@ -16286,7 +16492,7 @@
     </row>
     <row r="27">
       <c r="A27" s="134" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B27" s="130">
         <v>0.0</v>
@@ -16297,7 +16503,7 @@
     </row>
     <row r="28">
       <c r="A28" s="134" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B28" s="130">
         <v>0.0</v>
@@ -16308,7 +16514,7 @@
     </row>
     <row r="29">
       <c r="A29" s="134" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B29" s="130">
         <v>0.0</v>
@@ -16319,7 +16525,7 @@
     </row>
     <row r="30">
       <c r="A30" s="135" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B30" s="130">
         <v>0.0</v>
@@ -16330,7 +16536,7 @@
     </row>
     <row r="31">
       <c r="A31" s="134" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B31" s="130">
         <v>0.0</v>
@@ -16341,7 +16547,7 @@
     </row>
     <row r="32">
       <c r="A32" s="136" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B32" s="133">
         <v>0.0</v>
@@ -16352,7 +16558,7 @@
     </row>
     <row r="41">
       <c r="A41" s="123" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42">
@@ -16360,15 +16566,15 @@
         <v>15</v>
       </c>
       <c r="B42" s="127" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C42" s="127" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="137" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B43" s="130">
         <v>0.0</v>
@@ -16379,7 +16585,7 @@
     </row>
     <row r="44">
       <c r="A44" s="137" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B44" s="130">
         <v>14.0</v>
@@ -16390,7 +16596,7 @@
     </row>
     <row r="45">
       <c r="A45" s="137" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B45" s="130">
         <v>0.0</v>
@@ -16401,7 +16607,7 @@
     </row>
     <row r="46">
       <c r="A46" s="137" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B46" s="130">
         <v>0.0</v>
@@ -16412,7 +16618,7 @@
     </row>
     <row r="47">
       <c r="A47" s="137" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B47" s="130">
         <v>0.0</v>
@@ -16423,7 +16629,7 @@
     </row>
     <row r="48">
       <c r="A48" s="137" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B48" s="130">
         <v>16.0</v>
@@ -16434,7 +16640,7 @@
     </row>
     <row r="49">
       <c r="A49" s="137" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B49" s="130">
         <v>0.0</v>
@@ -16445,7 +16651,7 @@
     </row>
     <row r="50">
       <c r="A50" s="137" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B50" s="130">
         <v>0.0</v>
@@ -16456,7 +16662,7 @@
     </row>
     <row r="51">
       <c r="A51" s="137" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B51" s="130">
         <v>2.0</v>
@@ -16467,7 +16673,7 @@
     </row>
     <row r="52">
       <c r="A52" s="137" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B52" s="130">
         <v>0.0</v>
@@ -16478,7 +16684,7 @@
     </row>
     <row r="53">
       <c r="A53" s="137" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B53" s="130">
         <v>0.0</v>
@@ -16489,7 +16695,7 @@
     </row>
     <row r="54">
       <c r="A54" s="137" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B54" s="130">
         <v>32.0</v>
@@ -16500,7 +16706,7 @@
     </row>
     <row r="55">
       <c r="A55" s="137" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B55" s="130">
         <v>33.0</v>
@@ -16511,7 +16717,7 @@
     </row>
     <row r="56">
       <c r="A56" s="137" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B56" s="130">
         <v>109.0</v>
@@ -16522,7 +16728,7 @@
     </row>
     <row r="57">
       <c r="A57" s="137" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B57" s="130">
         <v>0.0</v>
@@ -16533,7 +16739,7 @@
     </row>
     <row r="58">
       <c r="A58" s="137" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B58" s="130">
         <v>0.0</v>
@@ -16544,7 +16750,7 @@
     </row>
     <row r="59">
       <c r="A59" s="137" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B59" s="130">
         <v>1.0</v>
@@ -16555,7 +16761,7 @@
     </row>
     <row r="60">
       <c r="A60" s="137" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B60" s="130">
         <v>38.0</v>
@@ -16566,7 +16772,7 @@
     </row>
     <row r="61">
       <c r="A61" s="137" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B61" s="130">
         <v>0.0</v>
@@ -16577,7 +16783,7 @@
     </row>
     <row r="62">
       <c r="A62" s="137" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B62" s="130">
         <v>5.0</v>
@@ -16588,7 +16794,7 @@
     </row>
     <row r="63">
       <c r="A63" s="137" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B63" s="130">
         <v>0.0</v>
@@ -16599,7 +16805,7 @@
     </row>
     <row r="64">
       <c r="A64" s="137" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B64" s="130">
         <v>0.0</v>
@@ -16610,7 +16816,7 @@
     </row>
     <row r="65">
       <c r="A65" s="137" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B65" s="130">
         <v>3.0</v>
@@ -16621,7 +16827,7 @@
     </row>
     <row r="66">
       <c r="A66" s="137" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B66" s="130">
         <v>4.0</v>
@@ -16632,7 +16838,7 @@
     </row>
     <row r="67">
       <c r="A67" s="137" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B67" s="130">
         <v>2.0</v>
@@ -16643,7 +16849,7 @@
     </row>
     <row r="68">
       <c r="A68" s="137" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B68" s="130">
         <v>0.0</v>
@@ -16654,7 +16860,7 @@
     </row>
     <row r="69">
       <c r="A69" s="137" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B69" s="130">
         <v>0.0</v>
@@ -16665,7 +16871,7 @@
     </row>
     <row r="70">
       <c r="A70" s="137" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B70" s="130">
         <v>0.0</v>
@@ -16676,7 +16882,7 @@
     </row>
     <row r="71">
       <c r="A71" s="137" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B71" s="130">
         <v>2.0</v>
@@ -16687,7 +16893,7 @@
     </row>
     <row r="72">
       <c r="A72" s="137" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B72" s="130">
         <v>237.0</v>
@@ -16698,7 +16904,7 @@
     </row>
     <row r="73">
       <c r="A73" s="139" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B73" s="133">
         <v>68.0</v>
